--- a/9_Модуль/ПРАКТИКА/9.4 Домашнее задание.xlsx
+++ b/9_Модуль/ПРАКТИКА/9.4 Домашнее задание.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaga\Desktop\Курсы и выступления\Курс Excel SKillbox\ДЗ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\УЧЁБА\EXCEL\Excel\9_Модуль\ПРАКТИКА\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BEC7E2-141A-48FC-8F84-E96C3B41B913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2704E4D9-17E6-4BBB-8CF4-F747563F19C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A95A732-5BCA-444D-8815-7F37AC8A3610}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0A95A732-5BCA-444D-8815-7F37AC8A3610}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="190">
   <si>
     <t>Дата рождения</t>
   </si>
@@ -593,17 +593,31 @@
   </si>
   <si>
     <t>Севастополь</t>
+  </si>
+  <si>
+    <t>Плюсовая температура самого холодного месяца</t>
+  </si>
+  <si>
+    <t>Среднее кол-во осадков по всем регионам:</t>
+  </si>
+  <si>
+    <t>Среднее годовое кол-во осадков выше общего среднего</t>
+  </si>
+  <si>
+    <t>Премия</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,8 +651,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,6 +671,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -669,13 +698,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -694,11 +724,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Денежный" xfId="2" builtinId="4"/>
     <cellStyle name="Заголовок 3" xfId="1" builtinId="18"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="4" builtinId="3"/>
     <cellStyle name="Хороший" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1086,9 +1137,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5610225" cy="2714626"/>
@@ -1105,7 +1156,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7581900" y="981074"/>
+          <a:off x="8726805" y="1123949"/>
           <a:ext cx="5610225" cy="2714626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1813,20 +1864,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9483C5A6-CA4D-4261-80BD-04BEB9565D8C}">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
@@ -1842,8 +1896,14 @@
       <c r="E1" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1859,8 +1919,16 @@
       <c r="E2" s="2">
         <v>323</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>IF(B2&gt;0,"Всегда плюс","")</f>
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(E2&gt;$J$22,"Много осадков","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1876,8 +1944,16 @@
       <c r="E3" s="2">
         <v>717</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="0">IF(B3&gt;0,"Всегда плюс","")</f>
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="1">IF(E3&gt;$J$22,"Много осадков","")</f>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1893,8 +1969,16 @@
       <c r="E4" s="2">
         <v>329</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1910,8 +1994,16 @@
       <c r="E5" s="2">
         <v>679</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1927,8 +2019,16 @@
       <c r="E6" s="2">
         <v>384</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1944,8 +2044,16 @@
       <c r="E7" s="2">
         <v>564</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Всегда плюс</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1961,8 +2069,16 @@
       <c r="E8" s="2">
         <v>606</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1978,8 +2094,16 @@
       <c r="E9" s="2">
         <v>233</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1995,8 +2119,16 @@
       <c r="E10" s="2">
         <v>923</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2012,8 +2144,16 @@
       <c r="E11" s="2">
         <v>752</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Всегда плюс</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2029,8 +2169,16 @@
       <c r="E12" s="2">
         <v>431</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -2046,8 +2194,16 @@
       <c r="E13" s="2">
         <v>605</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -2063,8 +2219,16 @@
       <c r="E14" s="2">
         <v>656</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -2080,8 +2244,16 @@
       <c r="E15" s="2">
         <v>682</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2097,8 +2269,16 @@
       <c r="E16" s="2">
         <v>543</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2114,8 +2294,16 @@
       <c r="E17" s="2">
         <v>361</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2131,8 +2319,16 @@
       <c r="E18" s="2">
         <v>595</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -2148,8 +2344,16 @@
       <c r="E19" s="2">
         <v>295</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2165,8 +2369,16 @@
       <c r="E20" s="2">
         <v>671</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2182,9 +2394,17 @@
       <c r="E21" s="2">
         <v>422</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="2">
@@ -2199,8 +2419,23 @@
       <c r="E22" s="2">
         <v>639</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" s="13">
+        <f>AVERAGE(E2:E144)</f>
+        <v>556.66433566433568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2216,8 +2451,16 @@
       <c r="E23" s="2">
         <v>550</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2233,8 +2476,16 @@
       <c r="E24" s="2">
         <v>178</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -2250,8 +2501,16 @@
       <c r="E25" s="2">
         <v>285</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -2267,8 +2526,16 @@
       <c r="E26" s="2">
         <v>818</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2284,8 +2551,16 @@
       <c r="E27" s="2">
         <v>929</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -2301,8 +2576,16 @@
       <c r="E28" s="2">
         <v>584</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2318,8 +2601,16 @@
       <c r="E29" s="2">
         <v>347</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -2335,8 +2626,16 @@
       <c r="E30" s="2">
         <v>565</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2352,8 +2651,16 @@
       <c r="E31" s="2">
         <v>531</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -2369,8 +2676,16 @@
       <c r="E32" s="2">
         <v>587</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -2386,8 +2701,16 @@
       <c r="E33" s="2">
         <v>677</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -2403,8 +2726,16 @@
       <c r="E34" s="2">
         <v>731</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2420,8 +2751,16 @@
       <c r="E35" s="2">
         <v>439</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2437,8 +2776,16 @@
       <c r="E36" s="2">
         <v>377</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>Всегда плюс</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2454,8 +2801,16 @@
       <c r="E37" s="2">
         <v>233</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2471,8 +2826,16 @@
       <c r="E38" s="2">
         <v>522</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -2488,8 +2851,16 @@
       <c r="E39" s="2">
         <v>421</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>Всегда плюс</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2505,8 +2876,16 @@
       <c r="E40" s="2">
         <v>537</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -2522,8 +2901,16 @@
       <c r="E41" s="2">
         <v>629</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -2539,8 +2926,16 @@
       <c r="E42" s="2">
         <v>589</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -2556,8 +2951,16 @@
       <c r="E43" s="2">
         <v>345</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -2573,8 +2976,16 @@
       <c r="E44" s="2">
         <v>612</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -2590,8 +3001,16 @@
       <c r="E45" s="2">
         <v>510</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -2607,8 +3026,16 @@
       <c r="E46" s="2">
         <v>477</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -2624,8 +3051,16 @@
       <c r="E47" s="2">
         <v>642</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -2641,8 +3076,16 @@
       <c r="E48" s="2">
         <v>558</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2658,8 +3101,16 @@
       <c r="E49" s="2">
         <v>564</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -2675,8 +3126,16 @@
       <c r="E50" s="2">
         <v>818</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -2692,8 +3151,16 @@
       <c r="E51" s="2">
         <v>389</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -2709,8 +3176,16 @@
       <c r="E52" s="2">
         <v>543</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -2726,8 +3201,16 @@
       <c r="E53" s="2">
         <v>436</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -2743,8 +3226,16 @@
       <c r="E54" s="2">
         <v>505</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -2760,8 +3251,16 @@
       <c r="E55" s="2">
         <v>743</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -2777,8 +3276,16 @@
       <c r="E56" s="2">
         <v>397</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>99</v>
       </c>
@@ -2794,8 +3301,16 @@
       <c r="E57" s="2">
         <v>676</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -2811,8 +3326,16 @@
       <c r="E58" s="2">
         <v>628</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -2828,8 +3351,16 @@
       <c r="E59" s="2">
         <v>581</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -2845,8 +3376,16 @@
       <c r="E60" s="2">
         <v>625</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -2862,8 +3401,16 @@
       <c r="E61" s="2">
         <v>576</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -2879,8 +3426,16 @@
       <c r="E62" s="2">
         <v>718</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>Всегда плюс</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -2896,8 +3451,16 @@
       <c r="E63" s="2">
         <v>491</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -2913,8 +3476,16 @@
       <c r="E64" s="2">
         <v>406</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -2930,8 +3501,16 @@
       <c r="E65" s="2">
         <v>648</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -2947,8 +3526,16 @@
       <c r="E66" s="2">
         <v>217</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -2964,8 +3551,16 @@
       <c r="E67" s="2">
         <v>559</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F130" si="2">IF(B67&gt;0,"Всегда плюс","")</f>
+        <v/>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G130" si="3">IF(E67&gt;$J$22,"Много осадков","")</f>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -2981,8 +3576,16 @@
       <c r="E68" s="2">
         <v>353</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -2998,8 +3601,16 @@
       <c r="E69" s="2">
         <v>333</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -3015,8 +3626,16 @@
       <c r="E70" s="2">
         <v>340</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="str">
+        <f t="shared" si="2"/>
+        <v>Всегда плюс</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -3032,8 +3651,16 @@
       <c r="E71" s="2">
         <v>556</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -3049,8 +3676,16 @@
       <c r="E72" s="2">
         <v>707</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -3066,8 +3701,16 @@
       <c r="E73" s="2">
         <v>494</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -3083,8 +3726,16 @@
       <c r="E74" s="2">
         <v>504</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -3100,8 +3751,16 @@
       <c r="E75" s="2">
         <v>860</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -3117,8 +3776,16 @@
       <c r="E76" s="2">
         <v>583</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -3134,8 +3801,16 @@
       <c r="E77" s="2">
         <v>410</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -3151,8 +3826,16 @@
       <c r="E78" s="2">
         <v>648</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -3168,8 +3851,16 @@
       <c r="E79" s="2">
         <v>660</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -3185,8 +3876,16 @@
       <c r="E80" s="2">
         <v>447</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -3202,8 +3901,16 @@
       <c r="E81" s="2">
         <v>448</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -3219,8 +3926,16 @@
       <c r="E82" s="2">
         <v>341</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>125</v>
       </c>
@@ -3236,8 +3951,16 @@
       <c r="E83" s="2">
         <v>536</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -3253,8 +3976,16 @@
       <c r="E84" s="2">
         <v>212</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -3270,8 +4001,16 @@
       <c r="E85" s="2">
         <v>326</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>128</v>
       </c>
@@ -3287,8 +4026,16 @@
       <c r="E86" s="2">
         <v>415</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -3304,8 +4051,16 @@
       <c r="E87" s="2">
         <v>617</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -3321,8 +4076,16 @@
       <c r="E88" s="2">
         <v>364</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>131</v>
       </c>
@@ -3338,8 +4101,16 @@
       <c r="E89" s="2">
         <v>601</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>132</v>
       </c>
@@ -3355,8 +4126,16 @@
       <c r="E90" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>133</v>
       </c>
@@ -3372,8 +4151,16 @@
       <c r="E91" s="2">
         <v>221</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -3389,8 +4176,16 @@
       <c r="E92" s="2">
         <v>521</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>135</v>
       </c>
@@ -3406,8 +4201,16 @@
       <c r="E93" s="2">
         <v>657</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>136</v>
       </c>
@@ -3423,8 +4226,16 @@
       <c r="E94" s="2">
         <v>611</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>137</v>
       </c>
@@ -3440,8 +4251,16 @@
       <c r="E95" s="2">
         <v>1177</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -3457,8 +4276,16 @@
       <c r="E96" s="2">
         <v>623</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>138</v>
       </c>
@@ -3474,8 +4301,16 @@
       <c r="E97" s="2">
         <v>702</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>139</v>
       </c>
@@ -3491,8 +4326,16 @@
       <c r="E98" s="2">
         <v>643</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>140</v>
       </c>
@@ -3508,8 +4351,16 @@
       <c r="E99" s="2">
         <v>660</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>141</v>
       </c>
@@ -3525,8 +4376,16 @@
       <c r="E100" s="2">
         <v>575</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>142</v>
       </c>
@@ -3542,8 +4401,16 @@
       <c r="E101" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>143</v>
       </c>
@@ -3559,8 +4426,16 @@
       <c r="E102" s="2">
         <v>557</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>144</v>
       </c>
@@ -3576,8 +4451,16 @@
       <c r="E103" s="2">
         <v>662</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>145</v>
       </c>
@@ -3593,8 +4476,16 @@
       <c r="E104" s="2">
         <v>510</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>146</v>
       </c>
@@ -3610,8 +4501,16 @@
       <c r="E105" s="2">
         <v>476</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>185</v>
       </c>
@@ -3627,8 +4526,16 @@
       <c r="E106" s="2">
         <v>379</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" t="str">
+        <f t="shared" si="2"/>
+        <v>Всегда плюс</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>147</v>
       </c>
@@ -3644,8 +4551,16 @@
       <c r="E107" s="2">
         <v>1842</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>148</v>
       </c>
@@ -3661,8 +4576,16 @@
       <c r="E108" s="2">
         <v>1570</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>184</v>
       </c>
@@ -3678,8 +4601,16 @@
       <c r="E109" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" t="str">
+        <f t="shared" si="2"/>
+        <v>Всегда плюс</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -3695,8 +4626,16 @@
       <c r="E110" s="2">
         <v>739</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>150</v>
       </c>
@@ -3712,8 +4651,16 @@
       <c r="E111" s="2">
         <v>1684</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" t="str">
+        <f t="shared" si="2"/>
+        <v>Всегда плюс</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>151</v>
       </c>
@@ -3729,8 +4676,16 @@
       <c r="E112" s="2">
         <v>556</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -3746,8 +4701,16 @@
       <c r="E113" s="2">
         <v>580</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>153</v>
       </c>
@@ -3763,8 +4726,16 @@
       <c r="E114" s="2">
         <v>621</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>154</v>
       </c>
@@ -3780,8 +4751,16 @@
       <c r="E115" s="2">
         <v>518</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>155</v>
       </c>
@@ -3797,8 +4776,16 @@
       <c r="E116" s="2">
         <v>653</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>156</v>
       </c>
@@ -3814,8 +4801,16 @@
       <c r="E117" s="2">
         <v>322</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>157</v>
       </c>
@@ -3831,8 +4826,16 @@
       <c r="E118" s="2">
         <v>476</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>158</v>
       </c>
@@ -3848,8 +4851,16 @@
       <c r="E119" s="2">
         <v>568</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>159</v>
       </c>
@@ -3865,8 +4876,16 @@
       <c r="E120" s="2">
         <v>614</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>160</v>
       </c>
@@ -3882,8 +4901,16 @@
       <c r="E121" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>161</v>
       </c>
@@ -3899,8 +4926,16 @@
       <c r="E122" s="2">
         <v>478</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>162</v>
       </c>
@@ -3916,8 +4951,16 @@
       <c r="E123" s="2">
         <v>265</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>163</v>
       </c>
@@ -3933,8 +4976,16 @@
       <c r="E124" s="2">
         <v>470</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>164</v>
       </c>
@@ -3950,8 +5001,16 @@
       <c r="E125" s="2">
         <v>589</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>165</v>
       </c>
@@ -3967,8 +5026,16 @@
       <c r="E126" s="2">
         <v>553</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>166</v>
       </c>
@@ -3984,8 +5051,16 @@
       <c r="E127" s="2">
         <v>684</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>167</v>
       </c>
@@ -4001,8 +5076,16 @@
       <c r="E128" s="2">
         <v>530</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>168</v>
       </c>
@@ -4018,8 +5101,16 @@
       <c r="E129" s="2">
         <v>280</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>169</v>
       </c>
@@ -4035,8 +5126,16 @@
       <c r="E130" s="2">
         <v>823</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="3"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>170</v>
       </c>
@@ -4052,8 +5151,16 @@
       <c r="E131" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" t="str">
+        <f t="shared" ref="F131:F144" si="4">IF(B131&gt;0,"Всегда плюс","")</f>
+        <v/>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" ref="G131:G144" si="5">IF(E131&gt;$J$22,"Много осадков","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>171</v>
       </c>
@@ -4069,8 +5176,16 @@
       <c r="E132" s="2">
         <v>499</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>172</v>
       </c>
@@ -4086,8 +5201,16 @@
       <c r="E133" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>173</v>
       </c>
@@ -4103,8 +5226,16 @@
       <c r="E134" s="2">
         <v>647</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="5"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>174</v>
       </c>
@@ -4120,8 +5251,16 @@
       <c r="E135" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>175</v>
       </c>
@@ -4137,8 +5276,16 @@
       <c r="E136" s="2">
         <v>203</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>176</v>
       </c>
@@ -4154,8 +5301,16 @@
       <c r="E137" s="2">
         <v>694</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="5"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>177</v>
       </c>
@@ -4171,8 +5326,16 @@
       <c r="E138" s="2">
         <v>349</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>178</v>
       </c>
@@ -4188,8 +5351,16 @@
       <c r="E139" s="2">
         <v>1251</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="5"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>179</v>
       </c>
@@ -4205,8 +5376,16 @@
       <c r="E140" s="2">
         <v>864</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="5"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>180</v>
       </c>
@@ -4222,8 +5401,16 @@
       <c r="E141" s="2">
         <v>247</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" t="str">
+        <f t="shared" si="4"/>
+        <v>Всегда плюс</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>181</v>
       </c>
@@ -4239,8 +5426,16 @@
       <c r="E142" s="2">
         <v>237</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>183</v>
       </c>
@@ -4256,8 +5451,16 @@
       <c r="E143" s="2">
         <v>612</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" t="str">
+        <f t="shared" si="4"/>
+        <v>Всегда плюс</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="5"/>
+        <v>Много осадков</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>182</v>
       </c>
@@ -4273,6 +5476,18 @@
       <c r="E144" s="2">
         <v>270</v>
       </c>
+      <c r="F144" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="9"/>
+      <c r="E145" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4282,24 +5497,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92F80A4-173F-4BCB-ADDA-F60432261DD4}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -4318,8 +5534,11 @@
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4338,8 +5557,12 @@
       <c r="F2" s="5">
         <v>100000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="15">
+        <f>IF(AND(E2="Офис"),0.05*F2,IF(OR(D2="Дизайнер",D2="Копирайтер")*AND(E2="Удаленка"),0.06*F2,""))</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4358,8 +5581,12 @@
       <c r="F3" s="5">
         <v>60000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="15">
+        <f t="shared" ref="G3:G21" si="0">IF(AND(E3="Офис"),0.05*F3,IF(OR(D3="Дизайнер",D3="Копирайтер")*AND(E3="Удаленка"),0.06*F3,""))</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4378,8 +5605,12 @@
       <c r="F4" s="5">
         <v>50000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4398,8 +5629,12 @@
       <c r="F5" s="5">
         <v>45000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -4418,8 +5653,12 @@
       <c r="F6" s="5">
         <v>80000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="15">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -4438,8 +5677,12 @@
       <c r="F7" s="5">
         <v>45000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -4458,8 +5701,12 @@
       <c r="F8" s="5">
         <v>60000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -4478,8 +5725,12 @@
       <c r="F9" s="5">
         <v>60000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="15">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -4498,8 +5749,12 @@
       <c r="F10" s="5">
         <v>50000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="15">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -4518,8 +5773,12 @@
       <c r="F11" s="5">
         <v>45000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -4538,8 +5797,12 @@
       <c r="F12" s="5">
         <v>60000</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4558,8 +5821,12 @@
       <c r="F13" s="5">
         <v>30000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="15">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -4578,8 +5845,12 @@
       <c r="F14" s="5">
         <v>60000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -4598,8 +5869,12 @@
       <c r="F15" s="5">
         <v>70000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -4618,8 +5893,12 @@
       <c r="F16" s="5">
         <v>70000</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -4638,8 +5917,12 @@
       <c r="F17" s="5">
         <v>30000</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="15">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4658,8 +5941,12 @@
       <c r="F18" s="5">
         <v>65000</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -4678,8 +5965,12 @@
       <c r="F19" s="5">
         <v>60000</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="15">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -4698,8 +5989,12 @@
       <c r="F20" s="5">
         <v>50000</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="15">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -4717,6 +6012,10 @@
       </c>
       <c r="F21" s="5">
         <v>50000</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
